--- a/Casos Cartera/GPS - TMC.xlsx
+++ b/Casos Cartera/GPS - TMC.xlsx
@@ -19,11 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GPS!$A$2:$H$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -58,18 +59,6 @@
     <t>Sistema emite mensaje indicando Debe ingresar una fecha.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Cargar Redición PAT, hacer clic en boton browser, seleccionar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo PAT - sub modulo Generar Nómina de Cargo, hacer clic en boton confirmar</t>
-  </si>
-  <si>
     <t>TC_Cartera_GPS_Activar</t>
   </si>
   <si>
@@ -128,6 +117,42 @@
   </si>
   <si>
     <t>TC_Cartera_GPS_Eliminar</t>
+  </si>
+  <si>
+    <t>Validar consulta de gps, seleccionando registros</t>
+  </si>
+  <si>
+    <t>Validar modificación de gps, seleccionando registro en estado activado</t>
+  </si>
+  <si>
+    <t>Validar modificación de gps, seleccionando registro en estado baja</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, seleccionar registro gps en estado activado, hacer clic en boton baja</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, seleccionar registro gps en estado renovacion, hacer clic en boton renovar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, hacer clic en boton exportar excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, hacer clic en enlace ID, hacer clic en pestaña ver bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, hacer clic en enlace ID, hacer clic en boton modificar, editar datos correspondientes, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, hacer clic en enlace ID, hacer clic en boton eliminar, hacer clic en boton si</t>
   </si>
 </sst>
 </file>
@@ -541,14 +566,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="92.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="175" style="4" customWidth="1"/>
+    <col min="3" max="3" width="195" style="4" customWidth="1"/>
     <col min="4" max="4" width="86.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,84 +599,100 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -856,12 +897,12 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="84.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="79" style="4" bestFit="1" customWidth="1"/>
@@ -889,13 +930,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -903,13 +944,13 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -917,13 +958,13 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>

--- a/Casos Cartera/GPS - TMC.xlsx
+++ b/Casos Cartera/GPS - TMC.xlsx
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GPS!$A$2:$H$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -47,9 +46,6 @@
     <t>Validar emisión de nómina de cargo, indicando fecha en la cual existe regitros.</t>
   </si>
   <si>
-    <t>Validar emisión de nómina de cargo, indicando fecha en la cual no hay regitros.</t>
-  </si>
-  <si>
     <t>Descarga de archivo excel con información correspondiente a nómina de cargo</t>
   </si>
   <si>
@@ -95,9 +91,6 @@
     <t xml:space="preserve">Validar emisión de archivo excel, con registros </t>
   </si>
   <si>
-    <t xml:space="preserve">Validar cambio de estado gps, indicando </t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, seleccionar registro gps en estado por instalar, hacer clic en boton activar</t>
   </si>
   <si>
@@ -131,9 +124,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, ingresar fecha en la cual exiten regitros, hacer clic en boton confirmar, visualizar archivo excel con la información correspondiente.</t>
   </si>
   <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, ingresar fecha en la cual no hay regitros, hacer clic en boton confirmar, se debe descargar archivo excel</t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, hacer clic en boton confirmar</t>
   </si>
   <si>
@@ -153,6 +143,33 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, hacer clic en enlace ID, hacer clic en boton eliminar, hacer clic en boton si</t>
+  </si>
+  <si>
+    <t>Validar emisión de nómina de cargo, considerando la opción evaluar TMC.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo TMC, ingresar fecha, hacer clic en boton confirmar, se debe descargar archivo excel</t>
+  </si>
+  <si>
+    <t>Validar cambio de estado gps, seleccionando registro en estado activado y para cambiar a renovado, renovación a baja, baja a renovación, por instalar a baja.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo GPS, seleccionando registro en estado activado y para cambiar a renovado, renovación a baja, baja a renovación, por instalar a baja.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje de error a cada paso</t>
+  </si>
+  <si>
+    <t>Descarga de archivo excel de manera exitosa</t>
+  </si>
+  <si>
+    <t>Consulta de manera exitosa</t>
+  </si>
+  <si>
+    <t>Modificación de registro de manera exitosa</t>
+  </si>
+  <si>
+    <t>Eliminación de registro de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -566,13 +583,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="92.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="155.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="195" style="4" customWidth="1"/>
     <col min="4" max="4" width="86.85546875" style="4" customWidth="1"/>
   </cols>
@@ -599,103 +616,115 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -930,44 +959,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
